--- a/medicine/Enfance/Pierre_Debresse/Pierre_Debresse.xlsx
+++ b/medicine/Enfance/Pierre_Debresse/Pierre_Debresse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Debresse (né Germain Bêche à Saint-Germain-au-Mont-d'Or le 12 janvier 1931 et mort à Bully le 12 décembre 2019[1],[2]) est un écrivain français, auteur de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Debresse (né Germain Bêche à Saint-Germain-au-Mont-d'Or le 12 janvier 1931 et mort à Bully le 12 décembre 2019,) est un écrivain français, auteur de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Debresse commence à partir de 1965 à publier aux éditions Magnard des romans historiques pour la jeunesse, qui se déroulent le plus souvent dans l'Antiquité.
-En 1984, il a travaillé comme directeur d'école[2].
-Trois de ses livres ont été réédités chez Magnard jeunesse en 1991-1992[3].
+En 1984, il a travaillé comme directeur d'école.
+Trois de ses livres ont été réédités chez Magnard jeunesse en 1991-1992.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1965 : Samorix et le rameau d'or, iIllustrations de Françoise Boudignon, Magnard.
 1967 : Le Trésor de Carthage, illustrations de Philippe Degrave, Magnard.
